--- a/Management/Production_Task_2017NOV09.xlsx
+++ b/Management/Production_Task_2017NOV09.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="274">
   <si>
     <t>Production Task Chart</t>
   </si>
@@ -1369,24 +1369,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1411,6 +1393,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1433,6 +1424,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2694,25 +2694,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7258,20 +7258,20 @@
     </row>
     <row r="3" spans="2:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="40"/>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="72"/>
       <c r="O3" s="41"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
@@ -7296,37 +7296,37 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="40"/>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="61" t="s">
+      <c r="D5" s="52"/>
+      <c r="E5" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="62"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="42"/>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="56"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="61"/>
       <c r="O5" s="41"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="40"/>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="61" t="s">
+      <c r="D6" s="52"/>
+      <c r="E6" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="42"/>
       <c r="I6" s="31" t="s">
         <v>26</v>
@@ -7350,15 +7350,15 @@
     </row>
     <row r="7" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="40"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="63" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
       <c r="H7" s="42"/>
       <c r="I7" s="14">
         <v>1</v>
@@ -7412,15 +7412,15 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="40"/>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="61" t="s">
+      <c r="D9" s="52"/>
+      <c r="E9" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
       <c r="H9" s="42"/>
       <c r="I9" s="14">
         <v>3</v>
@@ -7444,15 +7444,15 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="40"/>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="61" t="s">
+      <c r="D10" s="52"/>
+      <c r="E10" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="42"/>
       <c r="I10" s="14">
         <v>4</v>
@@ -7476,15 +7476,15 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="40"/>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="61" t="s">
+      <c r="D11" s="52"/>
+      <c r="E11" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="42"/>
       <c r="I11" s="14">
         <v>5</v>
@@ -7508,15 +7508,15 @@
     </row>
     <row r="12" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="40"/>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="63" t="s">
+      <c r="D12" s="54"/>
+      <c r="E12" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="64"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
       <c r="H12" s="42"/>
       <c r="I12" s="14">
         <v>6</v>
@@ -7684,14 +7684,14 @@
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="42"/>
-      <c r="I17" s="54" t="s">
+      <c r="I17" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="56"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="61"/>
       <c r="O17" s="41"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
@@ -7954,13 +7954,13 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="40"/>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="67"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
       <c r="H26" s="42"/>
       <c r="I26" s="14">
         <v>8</v>
@@ -7984,11 +7984,11 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="40"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="67"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64"/>
       <c r="H27" s="42"/>
       <c r="I27" s="14">
         <v>9</v>
@@ -8002,11 +8002,11 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="40"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="67"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="64"/>
       <c r="H28" s="42"/>
       <c r="I28" s="14">
         <v>10</v>
@@ -8020,29 +8020,29 @@
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="40"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="67"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="64"/>
       <c r="H29" s="42"/>
-      <c r="I29" s="54" t="s">
+      <c r="I29" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="56"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
       <c r="O29" s="41"/>
     </row>
     <row r="30" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="40"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="70"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="67"/>
       <c r="H30" s="42"/>
       <c r="I30" s="31" t="s">
         <v>26</v>
@@ -8086,10 +8086,10 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="40"/>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="72"/>
+      <c r="D32" s="69"/>
       <c r="E32" s="4">
         <f>SUM(E35,E38,E41,E44)</f>
         <v>17</v>
@@ -8115,13 +8115,13 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="40"/>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="56"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="61"/>
       <c r="H33" s="42"/>
       <c r="I33" s="14">
         <v>3</v>
@@ -8194,13 +8194,13 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="40"/>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="56"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="61"/>
       <c r="H36" s="42"/>
       <c r="I36" s="14">
         <v>6</v>
@@ -8273,13 +8273,13 @@
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="40"/>
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="56"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="61"/>
       <c r="H39" s="42"/>
       <c r="I39" s="14">
         <v>9</v>
@@ -8340,25 +8340,25 @@
         <v>0</v>
       </c>
       <c r="H41" s="42"/>
-      <c r="I41" s="54" t="s">
+      <c r="I41" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="56"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="61"/>
       <c r="O41" s="41"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="40"/>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="56"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="61"/>
       <c r="H42" s="42"/>
       <c r="I42" s="31" t="s">
         <v>26</v>
@@ -8745,21 +8745,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C32:D32"/>
     <mergeCell ref="I4:N4"/>
     <mergeCell ref="C3:N3"/>
     <mergeCell ref="I41:N41"/>
@@ -8776,6 +8761,21 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
   </mergeCells>
   <conditionalFormatting sqref="F15:F24">
     <cfRule type="duplicateValues" dxfId="16" priority="5"/>
@@ -11401,7 +11401,7 @@
   <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11589,11 +11589,11 @@
       </c>
       <c r="F9" s="19">
         <f>COUNTIFS($K$19:$K$118,B9,$J$19:$J$118,"O")</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G9" s="20">
         <f>COUNTA(B19:B118)-F9</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -11625,7 +11625,7 @@
       </c>
       <c r="G10" s="20">
         <f>G9-F10</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
@@ -11657,7 +11657,7 @@
       </c>
       <c r="G11" s="20">
         <f t="shared" ref="G11:G15" si="3">G10-F11</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="G12" s="20">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -11721,7 +11721,7 @@
       </c>
       <c r="G13" s="20">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
@@ -11753,7 +11753,7 @@
       </c>
       <c r="G14" s="20">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="G15" s="23">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
@@ -11971,12 +11971,24 @@
         <f t="shared" si="4"/>
         <v>O</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+      <c r="G21" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K21" s="19">
+        <v>1</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="M21" s="20" t="s">
         <v>212</v>
       </c>
@@ -12000,12 +12012,24 @@
         <f t="shared" si="4"/>
         <v>O</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
+      <c r="G22" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22" s="19">
+        <v>1</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="M22" s="20" t="s">
         <v>211</v>
       </c>
@@ -12029,12 +12053,24 @@
         <f t="shared" si="4"/>
         <v>O</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
+      <c r="G23" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" s="19">
+        <v>1</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="M23" s="20" t="s">
         <v>270</v>
       </c>

--- a/Management/Production_Task_2017NOV09.xlsx
+++ b/Management/Production_Task_2017NOV09.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="8775" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="8775"/>
   </bookViews>
   <sheets>
     <sheet name="Production Backlog Form" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="277">
   <si>
     <t>Production Task Chart</t>
   </si>
@@ -846,6 +846,15 @@
   </si>
   <si>
     <t>Complete simple level</t>
+  </si>
+  <si>
+    <t>DTE-PRM-018</t>
+  </si>
+  <si>
+    <t>Player Double Jump</t>
+  </si>
+  <si>
+    <t>DTE-PRM-18</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1725,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1777,7 +1786,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2694,25 +2703,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7217,8 +7226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q22:Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7753,7 +7762,7 @@
         <v>160</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>32</v>
+        <v>271</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>158</v>
@@ -7789,7 +7798,7 @@
         <v>162</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>32</v>
+        <v>271</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>161</v>
@@ -7819,7 +7828,7 @@
         <v>164</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>32</v>
+        <v>271</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>163</v>
@@ -7849,7 +7858,7 @@
         <v>178</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>32</v>
+        <v>271</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>165</v>
@@ -7879,7 +7888,7 @@
         <v>181</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>179</v>
@@ -7909,7 +7918,7 @@
         <v>230</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>32</v>
+        <v>271</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>165</v>
@@ -7939,7 +7948,7 @@
         <v>232</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>32</v>
+        <v>271</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>233</v>
@@ -7969,7 +7978,7 @@
         <v>234</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>32</v>
+        <v>271</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>235</v>
@@ -8077,11 +8086,19 @@
       <c r="I31" s="14">
         <v>1</v>
       </c>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
+      <c r="J31" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>275</v>
+      </c>
       <c r="M31" s="4"/>
-      <c r="N31" s="9"/>
+      <c r="N31" s="9" t="s">
+        <v>276</v>
+      </c>
       <c r="O31" s="41"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
@@ -8092,11 +8109,11 @@
       <c r="D32" s="69"/>
       <c r="E32" s="4">
         <f>SUM(E35,E38,E41,E44)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F32" s="4">
         <f>SUM(F35,F38,F41,F44)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G32" s="9">
         <f>E32-F32</f>
@@ -8254,11 +8271,11 @@
       </c>
       <c r="F38" s="4">
         <f>COUNTIF(K19:K28,"CP")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="9">
         <f>E38-F38</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H38" s="42"/>
       <c r="I38" s="14">
@@ -8329,7 +8346,7 @@
       </c>
       <c r="E41" s="4">
         <f>COUNTA(J31:J40)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="4">
         <f>COUNTIF(K31:K40, "CP")</f>
@@ -8337,7 +8354,7 @@
       </c>
       <c r="G41" s="9">
         <f>E41-F41</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="42"/>
       <c r="I41" s="59" t="s">
@@ -11400,8 +11417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11589,11 +11606,11 @@
       </c>
       <c r="F9" s="19">
         <f>COUNTIFS($K$19:$K$118,B9,$J$19:$J$118,"O")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" s="20">
         <f>COUNTA(B19:B118)-F9</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -11625,7 +11642,7 @@
       </c>
       <c r="G10" s="20">
         <f>G9-F10</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
@@ -11657,7 +11674,7 @@
       </c>
       <c r="G11" s="20">
         <f t="shared" ref="G11:G15" si="3">G10-F11</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -11689,7 +11706,7 @@
       </c>
       <c r="G12" s="20">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -11721,7 +11738,7 @@
       </c>
       <c r="G13" s="20">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
@@ -11753,7 +11770,7 @@
       </c>
       <c r="G14" s="20">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
@@ -11785,7 +11802,7 @@
       </c>
       <c r="G15" s="23">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
@@ -12094,7 +12111,9 @@
         <f t="shared" si="4"/>
         <v>O</v>
       </c>
-      <c r="G24" s="19"/>
+      <c r="G24" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
@@ -12123,7 +12142,9 @@
         <f t="shared" si="4"/>
         <v>O</v>
       </c>
-      <c r="G25" s="19"/>
+      <c r="G25" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
@@ -12152,7 +12173,9 @@
         <f t="shared" si="4"/>
         <v>O</v>
       </c>
-      <c r="G26" s="19"/>
+      <c r="G26" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
@@ -12181,7 +12204,9 @@
         <f t="shared" si="4"/>
         <v>O</v>
       </c>
-      <c r="G27" s="19"/>
+      <c r="G27" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
@@ -12210,7 +12235,9 @@
         <f t="shared" si="4"/>
         <v>O</v>
       </c>
-      <c r="G28" s="19"/>
+      <c r="G28" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
@@ -12239,7 +12266,9 @@
         <f t="shared" si="4"/>
         <v>O</v>
       </c>
-      <c r="G29" s="19"/>
+      <c r="G29" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
@@ -12268,7 +12297,9 @@
         <f t="shared" si="4"/>
         <v>O</v>
       </c>
-      <c r="G30" s="19"/>
+      <c r="G30" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
@@ -12367,7 +12398,9 @@
         <f t="shared" si="4"/>
         <v>O</v>
       </c>
-      <c r="G33" s="19"/>
+      <c r="G33" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="19"/>
@@ -12396,7 +12429,9 @@
         <f t="shared" si="4"/>
         <v>O</v>
       </c>
-      <c r="G34" s="19"/>
+      <c r="G34" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
@@ -12425,7 +12460,9 @@
         <f t="shared" si="4"/>
         <v>O</v>
       </c>
-      <c r="G35" s="19"/>
+      <c r="G35" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
@@ -12454,7 +12491,9 @@
         <f t="shared" si="4"/>
         <v>O</v>
       </c>
-      <c r="G36" s="19"/>
+      <c r="G36" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
@@ -12483,7 +12522,9 @@
         <f t="shared" si="4"/>
         <v>O</v>
       </c>
-      <c r="G37" s="19"/>
+      <c r="G37" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
@@ -12512,7 +12553,9 @@
         <f t="shared" si="4"/>
         <v>O</v>
       </c>
-      <c r="G38" s="19"/>
+      <c r="G38" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
@@ -12541,7 +12584,9 @@
         <f t="shared" si="4"/>
         <v>O</v>
       </c>
-      <c r="G39" s="19"/>
+      <c r="G39" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
@@ -12570,7 +12615,9 @@
         <f t="shared" si="4"/>
         <v>O</v>
       </c>
-      <c r="G40" s="19"/>
+      <c r="G40" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
@@ -12640,7 +12687,9 @@
         <f t="shared" si="4"/>
         <v>O</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="19"/>
@@ -12801,9 +12850,15 @@
       <c r="I46" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
+      <c r="J46" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K46" s="19">
+        <v>1</v>
+      </c>
+      <c r="L46" s="19" t="s">
+        <v>97</v>
+      </c>
       <c r="M46" s="36" t="s">
         <v>268</v>
       </c>
@@ -14262,7 +14317,7 @@
   <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:M16"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
